--- a/PomiarySimr/Velocity2.xlsx
+++ b/PomiarySimr/Velocity2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wutwaw-my.sharepoint.com/personal/01162562_pw_edu_pl/Documents/Kody/VSC Kody/GPS_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wutwaw-my.sharepoint.com/personal/01162562_pw_edu_pl/Documents/Kody/VSC Kody/GPS_data/PomiarySimr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_537105B9DD6A537B3DC0D4F0505ED87656CF846D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E7AE5E7-2A1C-4F1A-AD83-70FBD8EF4EE3}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_537105B9DD6A537B3DC0D4F0505ED87656CF846D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F933541B-1914-47C8-A859-69E9F944192D}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="7995" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>1 Kolumna prędkość [Km/h]</t>
+  </si>
+  <si>
+    <t>2 kolumna czas [s]</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -358,34 +365,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1268"/>
+  <dimension ref="A1:C1268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="8.9296875" customWidth="1"/>
+    <col min="3" max="3" width="33.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>0.56000000000000005</v>
       </c>
       <c r="B1">
         <v>1.436070442199707</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0.56999999999999995</v>
       </c>
       <c r="B2">
         <v>1.483617305755615</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0.56999999999999995</v>
       </c>
@@ -393,7 +407,7 @@
         <v>1.529164791107178</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0.56999999999999995</v>
       </c>
@@ -401,7 +415,7 @@
         <v>1.5710644721984861</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0.56999999999999995</v>
       </c>
@@ -409,7 +423,7 @@
         <v>1.6358380317687991</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0.56999999999999995</v>
       </c>
@@ -417,7 +431,7 @@
         <v>1.6781690120697019</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0.56999999999999995</v>
       </c>
@@ -425,7 +439,7 @@
         <v>1.742972612380981</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0.56999999999999995</v>
       </c>
@@ -433,7 +447,7 @@
         <v>1.78553318977356</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0.56000000000000005</v>
       </c>
@@ -441,7 +455,7 @@
         <v>1.850040197372437</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0.56000000000000005</v>
       </c>
@@ -449,7 +463,7 @@
         <v>1.891848087310791</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>0.56000000000000005</v>
       </c>
@@ -457,7 +471,7 @@
         <v>1.957052946090698</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>0.56000000000000005</v>
       </c>
@@ -465,7 +479,7 @@
         <v>2.000607013702393</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>0.56000000000000005</v>
       </c>
@@ -473,7 +487,7 @@
         <v>2.0635168552398682</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>0.56000000000000005</v>
       </c>
@@ -481,7 +495,7 @@
         <v>2.116887092590332</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>0.56999999999999995</v>
       </c>
@@ -489,7 +503,7 @@
         <v>2.1885967254638672</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>0.59</v>
       </c>
